--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,171 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E7" s="2">
         <v>43674</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43310</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42946</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42218</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41854</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41483</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41119</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40755</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8691000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8107000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6615000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5837000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7961000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8082000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8268000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8052000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7175000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7143000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5683000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5390000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4157000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3401000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5186000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5287000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10670000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5140000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4365000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4255000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3008000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2717000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2458000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2436000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2775000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2795000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2912000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2810000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2888000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,41 +843,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E12" s="3">
         <v>88000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>201000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>191000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>124000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>117000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>122000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>128000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>116000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>120000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,75 +912,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E14" s="3">
         <v>287000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>254000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-108000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>194000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>130000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>61000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>60000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E15" s="3">
         <v>48000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>17000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,74 +1000,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7535000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7123000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5601000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4396000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7013000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7022000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6969000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6023000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5921000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E18" s="3">
         <v>984000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1014000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1441000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>948000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1060000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1268000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1083000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1152000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1222000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1056,173 +1088,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>142000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>125000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>122000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1427000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1425000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1749000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1272000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1356000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1572000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1632000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1539000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E22" s="3">
         <v>356000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>115000</v>
       </c>
       <c r="G22" s="3">
         <v>115000</v>
       </c>
       <c r="H22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="I22" s="3">
         <v>104000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>119000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>270000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>228000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>244000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E23" s="3">
         <v>625000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>830000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1316000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>849000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>949000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1148000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>955000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1049000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E24" s="3">
         <v>149000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>232000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>392000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>286000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>283000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>374000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>275000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>325000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>351000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1253,75 +1301,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E26" s="3">
         <v>476000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>598000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>924000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>563000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>666000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>774000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>680000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>724000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>749000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E27" s="3">
         <v>476000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>598000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>924000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>563000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>666000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>785000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>689000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>729000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>743000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1352,42 +1409,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-265000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-337000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-37000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>81000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-231000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>40000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>53000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1418,9 +1481,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1451,75 +1517,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-142000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-125000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-122000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E33" s="3">
         <v>211000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>261000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>887000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>563000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>666000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>866000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>458000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>769000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>796000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1550,80 +1625,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E35" s="3">
         <v>211000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>261000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>887000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>563000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>666000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>866000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>458000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>769000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>796000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E38" s="2">
         <v>43674</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43310</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42946</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42218</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41854</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41483</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41119</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40755</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1637,8 +1721,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1652,41 +1737,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E41" s="3">
         <v>31000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>296000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>253000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>232000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>333000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>335000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>484000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1717,161 +1806,176 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E43" s="3">
         <v>574000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>563000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>605000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>626000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>647000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>670000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>553000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>560000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E44" s="3">
         <v>863000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>887000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>902000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>940000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>995000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1016000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>925000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>714000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>767000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E45" s="3">
         <v>499000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>873000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>328000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>169000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>152000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2385000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1967000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2296000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1908000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2093000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2221000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1771000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1963000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>77000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>47000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
@@ -1882,75 +1986,84 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2455000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2466000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2454000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2407000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2347000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2318000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2260000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2127000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2103000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7336000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7432000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7568000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3233000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3415000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3549000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3608000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3318000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2509000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2660000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1981,9 +2094,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2014,42 +2130,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1217000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>60000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>87000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>524000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>136000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2080,42 +2202,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12372000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14529000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7726000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7837000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8077000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8113000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8323000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6530000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6862000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2129,8 +2257,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2144,206 +2273,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E57" s="3">
         <v>814000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>705000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>666000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>610000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>544000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>527000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>523000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>571000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>585000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1371000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1525000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1037000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1219000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1543000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1771000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1909000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>786000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>657000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1364000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>692000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>726000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>719000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>691000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>850000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>713000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>747000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3385000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3594000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2395000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2555000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2806000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2989000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3282000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2070000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1989000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4994000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7103000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7991000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2314000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2539000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2244000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2544000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2004000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2427000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1483000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1577000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1187000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1435000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1355000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1215000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1265000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1558000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1350000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2374,9 +2522,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2407,9 +2558,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2440,42 +2594,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9809000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12045000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13165000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6089000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6312000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6696000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6498000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7106000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5632000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5774000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2489,8 +2649,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2521,9 +2682,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2554,9 +2718,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2587,9 +2754,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2620,42 +2790,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3190000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1993000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2224000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2385000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1927000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1754000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2198000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1772000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9584000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9185000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2686,9 +2862,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2719,9 +2898,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2752,42 +2934,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1103000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1364000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1637000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1525000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1381000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1615000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1217000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>898000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1088000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2818,80 +3006,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E80" s="2">
         <v>43674</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43310</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42946</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42218</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41854</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41483</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41119</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40755</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E81" s="3">
         <v>211000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>261000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>887000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>563000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>666000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>866000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>458000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>769000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>796000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2905,41 +3102,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E83" s="3">
         <v>446000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>394000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>318000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>308000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>303000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>305000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>407000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>262000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2970,9 +3171,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3003,9 +3207,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3036,9 +3243,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3069,9 +3279,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3102,42 +3315,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1398000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1305000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1291000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1491000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1206000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>967000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>951000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1120000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1142000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3151,41 +3370,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-384000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-407000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-338000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-341000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-380000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-347000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-336000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-323000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-272000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3216,9 +3439,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3249,42 +3475,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2272000</v>
+      </c>
+      <c r="E94" s="3">
         <v>153000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7197000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-368000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-354000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-603000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-134000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-323000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3298,41 +3530,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-423000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-426000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-420000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-390000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-394000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-391000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-367000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-373000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-378000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3363,9 +3599,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3396,9 +3635,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3429,106 +3671,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2987000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1591000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5807000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-911000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1099000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-550000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-925000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1237000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-920000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-93000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-101000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-149000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>230000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CPB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,183 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E7" s="2">
         <v>44045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43310</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42946</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42218</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41854</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41483</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41119</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40755</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8476000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8691000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8107000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6615000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5837000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7961000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8082000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8268000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8052000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7175000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7143000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5662000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5683000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5390000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4157000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3401000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5186000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5287000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10670000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5140000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4365000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4255000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2814000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3008000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2717000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2458000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2436000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2775000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2795000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2912000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2810000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2888000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,44 +856,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E12" s="3">
         <v>92000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>88000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>201000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>191000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>124000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>117000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>122000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>128000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>116000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>120000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -915,81 +931,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>157000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>287000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>254000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-108000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>194000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>130000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>61000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>60000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E15" s="3">
         <v>43000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>48000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>17000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1001,80 +1026,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6931000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7535000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7123000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5601000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4396000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7013000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7022000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6969000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6023000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5921000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1156000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>984000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1014000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1441000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>948000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1060000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1268000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1083000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1152000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1222000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,188 +1121,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>142000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>125000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>122000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1863000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1442000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1427000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1425000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1749000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1272000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1356000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1572000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1632000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1539000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E22" s="3">
         <v>348000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>356000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>115000</v>
       </c>
       <c r="H22" s="3">
         <v>115000</v>
       </c>
       <c r="I22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="J22" s="3">
         <v>104000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>119000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>270000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>228000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>244000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="E23" s="3">
         <v>766000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>625000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>830000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1316000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>849000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>949000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1148000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>955000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1049000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E24" s="3">
         <v>174000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>149000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>232000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>392000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>286000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>283000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>374000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>275000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>325000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>351000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1304,81 +1352,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E26" s="3">
         <v>592000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>476000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>598000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>924000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>563000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>666000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>774000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>680000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>724000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>749000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E27" s="3">
         <v>592000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>476000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>598000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>924000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>563000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>666000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>785000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>689000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>729000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>743000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1412,45 +1469,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E29" s="3">
         <v>1036000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-265000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-337000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-37000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>81000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-231000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>40000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>53000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1484,9 +1547,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1520,81 +1586,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-142000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-125000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-122000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1628000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>211000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>261000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>887000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>563000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>666000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>866000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>458000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>769000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>796000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1628,86 +1703,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1628000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>211000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>261000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>887000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>563000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>666000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>866000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>458000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>769000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>796000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E38" s="2">
         <v>44045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43310</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42946</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42218</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41854</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41483</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41119</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40755</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1722,8 +1806,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1738,44 +1823,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E41" s="3">
         <v>859000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>319000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>253000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>232000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>333000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>335000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>484000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1809,176 +1898,191 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E43" s="3">
         <v>575000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>574000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>563000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>605000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>626000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>647000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>670000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>635000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>553000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>560000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E44" s="3">
         <v>871000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>863000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>887000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>902000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>940000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>995000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1016000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>925000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>714000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>767000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E45" s="3">
         <v>80000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>499000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>873000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>198000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>328000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1695000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2385000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1967000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2296000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1908000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2093000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2221000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1771000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1963000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>77000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>47000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -1989,81 +2093,90 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2622000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2455000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2466000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2454000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2407000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2347000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2318000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2260000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2127000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2103000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7220000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7336000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7432000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7568000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3233000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3415000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3549000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3608000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3318000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2509000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2660000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2097,9 +2210,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2133,45 +2249,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E52" s="3">
         <v>29000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1217000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2147000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>60000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>87000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>524000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2205,45 +2327,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11734000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12372000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13148000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14529000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7726000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7837000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8077000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8113000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8323000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6530000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6862000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,8 +2386,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2274,224 +2403,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1049000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>814000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>705000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>666000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>610000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>544000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>527000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>523000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>571000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>585000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1202000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1371000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1525000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1037000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1219000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1543000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1771000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1909000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>786000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>657000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E59" s="3">
         <v>824000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1364000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>692000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>726000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>719000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>850000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>713000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>747000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3075000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3385000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3594000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2395000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2555000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2806000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2989000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3282000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2070000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1989000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5010000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4994000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7103000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7991000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2499000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2314000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2539000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2244000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2544000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2004000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2427000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1756000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1734000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1483000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1577000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1187000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1435000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1355000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1215000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1265000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1558000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1350000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2525,9 +2673,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2561,9 +2712,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2597,45 +2751,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8582000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9809000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12045000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13165000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6089000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6312000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6696000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6498000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7106000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5632000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5774000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2650,8 +2810,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2685,9 +2846,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2721,9 +2885,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,9 +2924,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2793,45 +2963,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3742000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3190000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1993000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2224000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2385000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1927000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1754000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2198000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1772000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9584000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9185000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2865,9 +3041,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2901,9 +3080,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2937,45 +3119,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3152000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2563000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1103000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1364000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1637000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1525000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1381000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1615000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1217000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>898000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1088000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3009,86 +3197,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E80" s="2">
         <v>44045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43310</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42946</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42218</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41854</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41483</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41119</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40755</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1628000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>211000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>261000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>887000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>563000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>666000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>866000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>458000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>769000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>796000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3103,44 +3300,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E83" s="3">
         <v>328000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>446000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>394000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>318000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>308000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>303000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>305000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>407000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>262000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3174,9 +3375,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3210,9 +3414,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3246,9 +3453,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3282,9 +3492,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3318,45 +3531,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1396000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1398000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1305000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1291000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1491000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1206000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>967000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>951000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1120000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1142000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3371,44 +3590,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-299000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-384000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-407000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-338000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-341000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-380000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-347000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-336000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-323000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-272000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3442,9 +3665,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3478,45 +3704,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2272000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>153000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7197000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-368000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-354000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-603000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-134000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-323000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3531,44 +3763,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-426000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-423000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-426000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-420000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-390000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-394000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-391000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-367000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-373000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-378000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3602,9 +3838,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3638,9 +3877,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3674,115 +3916,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1669000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2987000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1591000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5807000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-911000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1099000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-550000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-925000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1237000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-920000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-36000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-790000</v>
+      </c>
+      <c r="E102" s="3">
         <v>680000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-101000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-149000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>230000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CPB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,195 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44409</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44045</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43674</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43310</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42946</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41854</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41483</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41119</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40755</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8562000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8476000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8691000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8107000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6615000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5837000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7961000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8082000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8268000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8052000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7175000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7143000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5930000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5662000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5683000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5390000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4157000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3401000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5186000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5287000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10670000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5140000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4365000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4255000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2814000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3008000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2717000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2458000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2436000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2775000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2795000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2912000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2810000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2888000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,47 +869,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E12" s="3">
         <v>84000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>88000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>201000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>191000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>124000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>117000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>122000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>128000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>116000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>120000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,87 +950,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>157000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>287000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>254000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-108000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>194000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>130000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>61000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>60000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E15" s="3">
         <v>42000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>43000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>48000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7399000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6931000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7535000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7123000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5601000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4396000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7013000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7022000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6969000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6023000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5921000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1545000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1156000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>984000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1014000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1441000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>948000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1060000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1268000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1083000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1152000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1222000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,8 +1154,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1131,194 +1164,209 @@
         <v>1000</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>142000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>125000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>122000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1863000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1442000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1427000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1749000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1272000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1356000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1572000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1632000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1539000</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E22" s="3">
         <v>210000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>348000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>356000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>115000</v>
       </c>
       <c r="I22" s="3">
         <v>115000</v>
       </c>
       <c r="J22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K22" s="3">
         <v>104000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>270000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>228000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>244000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1336000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>766000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>625000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>830000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1316000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>849000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>949000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1148000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>955000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1049000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E24" s="3">
         <v>328000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>174000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>149000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>232000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>392000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>286000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>283000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>374000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>275000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>325000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>351000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1008000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>592000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>476000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>598000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>924000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>563000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>666000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>774000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>680000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>724000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>749000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1008000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>592000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>476000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>598000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>924000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>563000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>666000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>785000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>689000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>729000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>743000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1472,48 +1529,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1036000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-265000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-337000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-37000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>81000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-231000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>40000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>53000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1589,9 +1655,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1599,77 +1668,83 @@
         <v>-1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-142000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-125000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-122000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1002000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1628000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>211000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>261000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>887000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>563000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>666000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>866000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>458000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>769000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>796000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1706,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1002000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1628000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>211000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>261000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>887000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>563000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>666000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>866000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>458000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>769000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>796000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44409</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44045</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43674</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43310</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42946</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41854</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41483</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41119</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40755</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1824,47 +1909,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>69000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>859000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>296000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>253000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>232000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>333000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>335000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>484000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1901,191 +1990,206 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E43" s="3">
         <v>595000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>575000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>574000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>563000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>605000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>626000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>647000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>670000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>635000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>553000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>560000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="E44" s="3">
         <v>933000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>871000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>863000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>887000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>902000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>940000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>995000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1016000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>925000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>714000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>767000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E45" s="3">
         <v>98000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>499000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>873000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>198000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>328000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1695000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2385000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1967000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2296000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1908000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2093000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2221000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1771000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1963000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>77000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>47000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
@@ -2096,87 +2200,96 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2582000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2605000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2622000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2455000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2466000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2454000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2407000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2347000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2318000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2260000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2127000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2103000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7177000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7220000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7336000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7432000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7568000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3233000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3415000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3549000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3608000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3318000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2509000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2660000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2213,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2252,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E52" s="3">
         <v>214000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1217000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2147000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>524000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11892000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11734000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12372000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13148000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14529000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7726000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7837000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8077000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8113000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8323000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6530000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6862000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2387,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2404,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1070000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1049000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>814000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>705000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>666000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>610000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>544000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>527000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>523000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>571000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>585000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>814000</v>
+      </c>
+      <c r="E58" s="3">
         <v>48000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1202000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1371000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1525000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1037000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1219000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1543000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1771000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1909000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>786000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>657000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E59" s="3">
         <v>696000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>824000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1364000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>692000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>726000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>719000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>691000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>850000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>713000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>747000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2886000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1814000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3075000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3385000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3594000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2395000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2555000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2806000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2989000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3282000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2070000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1989000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3996000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5010000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4994000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7103000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7991000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2314000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2539000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2244000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2544000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2004000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2427000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1756000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1734000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1483000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1577000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1187000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1435000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1355000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1215000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1265000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1558000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1350000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2676,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2715,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2754,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8561000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8582000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9809000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12045000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13165000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6089000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6312000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6696000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6498000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7106000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5632000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5774000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2888,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4040000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3742000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3190000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1993000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2224000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2385000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1927000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1754000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2198000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1772000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9584000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9185000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3044,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3083,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3122,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3331000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3152000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2563000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1103000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1364000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1637000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1525000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1381000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1615000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1217000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>898000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1088000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3200,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44409</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44045</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43674</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43310</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42946</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41854</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41483</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41119</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40755</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1002000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1628000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>211000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>261000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>887000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>563000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>666000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>866000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>458000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>769000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>796000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3301,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E83" s="3">
         <v>317000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>328000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>446000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>394000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>318000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>308000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>303000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>305000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>407000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>262000</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3378,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3456,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3495,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1035000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1396000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1398000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1305000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1291000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1491000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1206000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>967000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>951000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1120000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1142000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3591,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-275000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-299000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-384000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-407000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-338000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-341000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-380000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-347000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-336000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-323000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-272000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3668,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3707,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-158000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2272000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>153000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7197000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-368000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-354000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-603000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-134000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-323000</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3764,47 +3996,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-439000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-426000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-423000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-426000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-420000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-390000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-394000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-391000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-367000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-373000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-378000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3841,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3880,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3919,124 +4161,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-910000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1669000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2987000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1591000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5807000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-911000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1099000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-550000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-925000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1237000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-920000</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-36000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-790000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>680000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-101000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-149000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>230000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CPB</t>
   </si>
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1203,25 +1203,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1501000</v>
+        <v>1481000</v>
       </c>
       <c r="E21" s="3">
-        <v>1863000</v>
+        <v>1874000</v>
       </c>
       <c r="F21" s="3">
-        <v>1442000</v>
+        <v>1560000</v>
       </c>
       <c r="G21" s="3">
-        <v>1427000</v>
+        <v>1375000</v>
       </c>
       <c r="H21" s="3">
-        <v>1425000</v>
+        <v>1349000</v>
       </c>
       <c r="I21" s="3">
-        <v>1749000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1272000</v>
+        <v>1739000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="3">
         <v>1356000</v>
@@ -3505,25 +3505,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>337000</v>
+        <v>317000</v>
       </c>
       <c r="E83" s="3">
-        <v>317000</v>
+        <v>328000</v>
       </c>
       <c r="F83" s="3">
-        <v>328000</v>
+        <v>446000</v>
       </c>
       <c r="G83" s="3">
-        <v>446000</v>
+        <v>394000</v>
       </c>
       <c r="H83" s="3">
-        <v>394000</v>
+        <v>318000</v>
       </c>
       <c r="I83" s="3">
-        <v>318000</v>
-      </c>
-      <c r="J83" s="3">
         <v>308000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>303000</v>
@@ -3757,25 +3757,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1181000</v>
+        <v>1035000</v>
       </c>
       <c r="E89" s="3">
-        <v>1035000</v>
+        <v>1396000</v>
       </c>
       <c r="F89" s="3">
-        <v>1396000</v>
+        <v>1398000</v>
       </c>
       <c r="G89" s="3">
-        <v>1398000</v>
+        <v>1305000</v>
       </c>
       <c r="H89" s="3">
-        <v>1305000</v>
+        <v>1291000</v>
       </c>
       <c r="I89" s="3">
-        <v>1291000</v>
+        <v>1491000</v>
       </c>
       <c r="J89" s="3">
-        <v>1491000</v>
+        <v>1206000</v>
       </c>
       <c r="K89" s="3">
         <v>1206000</v>
@@ -3817,25 +3817,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-242000</v>
+        <v>-275000</v>
       </c>
       <c r="E91" s="3">
-        <v>-275000</v>
+        <v>-299000</v>
       </c>
       <c r="F91" s="3">
-        <v>-299000</v>
+        <v>-384000</v>
       </c>
       <c r="G91" s="3">
-        <v>-384000</v>
+        <v>-407000</v>
       </c>
       <c r="H91" s="3">
-        <v>-407000</v>
+        <v>-338000</v>
       </c>
       <c r="I91" s="3">
-        <v>-338000</v>
+        <v>-341000</v>
       </c>
       <c r="J91" s="3">
-        <v>-341000</v>
+        <v>-380000</v>
       </c>
       <c r="K91" s="3">
         <v>-380000</v>
@@ -3943,25 +3943,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-230000</v>
+        <v>-158000</v>
       </c>
       <c r="E94" s="3">
-        <v>-158000</v>
+        <v>2272000</v>
       </c>
       <c r="F94" s="3">
-        <v>2272000</v>
+        <v>153000</v>
       </c>
       <c r="G94" s="3">
-        <v>153000</v>
+        <v>-7197000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7197000</v>
+        <v>-368000</v>
       </c>
       <c r="I94" s="3">
-        <v>-368000</v>
-      </c>
-      <c r="J94" s="3">
         <v>-354000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>-603000</v>
@@ -4003,25 +4003,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-451000</v>
+        <v>-439000</v>
       </c>
       <c r="E96" s="3">
-        <v>-439000</v>
+        <v>-426000</v>
       </c>
       <c r="F96" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-426000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-423000</v>
-      </c>
       <c r="H96" s="3">
-        <v>-426000</v>
+        <v>-420000</v>
       </c>
       <c r="I96" s="3">
-        <v>-420000</v>
+        <v>-390000</v>
       </c>
       <c r="J96" s="3">
-        <v>-390000</v>
+        <v>-394000</v>
       </c>
       <c r="K96" s="3">
         <v>-394000</v>
@@ -4171,25 +4171,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-910000</v>
+        <v>-1669000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1669000</v>
+        <v>-2987000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2987000</v>
+        <v>-1591000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1591000</v>
+        <v>5807000</v>
       </c>
       <c r="H100" s="3">
-        <v>5807000</v>
+        <v>-911000</v>
       </c>
       <c r="I100" s="3">
-        <v>-911000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-1099000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>-550000</v>
@@ -4213,25 +4213,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>2000</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1000</v>
+        <v>-7000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7000</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-8000</v>
+        <v>11000</v>
       </c>
       <c r="I101" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J101" s="3">
         <v>5000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>-32000</v>
@@ -4255,25 +4255,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40000</v>
+        <v>-790000</v>
       </c>
       <c r="E102" s="3">
-        <v>-790000</v>
+        <v>680000</v>
       </c>
       <c r="F102" s="3">
-        <v>680000</v>
+        <v>-47000</v>
       </c>
       <c r="G102" s="3">
-        <v>-47000</v>
+        <v>-93000</v>
       </c>
       <c r="H102" s="3">
-        <v>-93000</v>
+        <v>23000</v>
       </c>
       <c r="I102" s="3">
-        <v>23000</v>
+        <v>43000</v>
       </c>
       <c r="J102" s="3">
-        <v>43000</v>
+        <v>21000</v>
       </c>
       <c r="K102" s="3">
         <v>21000</v>

--- a/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CPB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CPB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,206 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44409</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44045</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43310</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42946</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41854</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41483</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41119</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40755</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9357000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8562000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8476000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8691000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8107000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6615000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5837000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7961000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8082000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8268000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8052000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7175000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7143000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6422000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5930000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5662000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5683000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5390000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4157000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3401000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5186000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5287000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10670000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5140000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4365000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4255000</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2935000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2632000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2814000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3008000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2717000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2458000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2436000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2775000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2795000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2402000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2912000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2810000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2888000</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,50 +881,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E12" s="3">
         <v>87000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>84000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>92000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>88000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>201000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>191000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>124000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>117000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>122000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>128000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>116000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>120000</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,93 +968,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>157000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>287000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>254000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-108000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>194000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>130000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>61000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>60000</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E15" s="3">
         <v>41000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>42000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>43000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>48000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1053,92 +1077,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8045000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7399000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6931000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7535000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7123000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5601000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4396000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7013000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7022000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6969000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6023000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5921000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1163000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1545000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1156000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>984000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1014000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1441000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>948000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1060000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1083000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1152000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1222000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,218 +1186,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>142000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>125000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>122000</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1481000</v>
+        <v>1703000</v>
       </c>
       <c r="E21" s="3">
-        <v>1874000</v>
+        <v>1501000</v>
       </c>
       <c r="F21" s="3">
-        <v>1560000</v>
+        <v>1863000</v>
       </c>
       <c r="G21" s="3">
-        <v>1375000</v>
+        <v>1442000</v>
       </c>
       <c r="H21" s="3">
-        <v>1349000</v>
+        <v>1427000</v>
       </c>
       <c r="I21" s="3">
-        <v>1739000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1425000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1749000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1356000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1572000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1632000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1539000</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E22" s="3">
         <v>189000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>210000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>348000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>356000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>201000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>115000</v>
       </c>
       <c r="J22" s="3">
         <v>115000</v>
       </c>
       <c r="K22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="L22" s="3">
         <v>104000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>270000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>228000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>244000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E23" s="3">
         <v>975000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1336000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>766000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>625000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>830000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1316000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>849000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>949000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1148000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>955000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1049000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E24" s="3">
         <v>218000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>328000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>174000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>149000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>232000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>392000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>286000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>283000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>374000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>275000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>325000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>351000</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1406,93 +1453,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E26" s="3">
         <v>757000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1008000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>592000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>476000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>598000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>924000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>563000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>666000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>774000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>680000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>724000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>749000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E27" s="3">
         <v>757000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1008000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>592000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>476000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>598000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>924000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>563000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>666000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>785000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>689000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>729000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>743000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1532,9 +1588,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1542,41 +1601,44 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-6000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1036000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-265000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-337000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-37000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>81000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-231000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>40000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>53000</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1616,9 +1678,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1658,93 +1723,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-142000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-125000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-122000</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E33" s="3">
         <v>757000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1002000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1628000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>211000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>261000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>887000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>563000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>666000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>866000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>458000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>769000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>796000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1784,98 +1858,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E35" s="3">
         <v>757000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1002000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1628000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>211000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>261000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>887000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>563000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>666000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>866000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>458000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>769000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>796000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44409</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44045</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43674</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43310</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42946</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41854</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41483</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41119</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40755</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1892,8 +1975,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1910,50 +1994,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E41" s="3">
         <v>109000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>859000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>296000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>253000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>333000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>335000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>484000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1993,177 +2081,192 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E43" s="3">
         <v>541000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>595000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>575000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>574000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>563000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>605000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>626000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>647000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>670000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>635000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>553000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>560000</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1246000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>933000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>871000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>863000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>887000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>902000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>940000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>995000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1016000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>925000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>714000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>767000</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E45" s="3">
         <v>67000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>499000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>873000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>198000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>328000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>169000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152000</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1963000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1695000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2385000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1967000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2296000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1908000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2093000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2221000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1771000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1963000</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2173,26 +2276,26 @@
       <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>77000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>69000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>47000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10000</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
@@ -2203,93 +2306,102 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2582000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2605000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2622000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2455000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2466000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2454000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2407000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2347000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2318000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2260000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2127000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2103000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7107000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7177000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7220000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7336000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7432000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7568000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3233000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3415000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3549000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3608000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3318000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2509000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2660000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2329,9 +2441,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2371,51 +2486,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E52" s="3">
         <v>170000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>214000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1217000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2147000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>524000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2455,51 +2576,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12058000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11892000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11734000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12372000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13148000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14529000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7726000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7837000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8077000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8113000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8323000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6530000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6862000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2516,8 +2643,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2534,260 +2662,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1334000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1070000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1049000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>814000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>705000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>666000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>610000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>544000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>527000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>523000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>571000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>585000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E58" s="3">
         <v>814000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1202000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1371000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1525000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1037000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1219000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1543000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1771000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1909000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>786000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>657000</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E59" s="3">
         <v>738000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>696000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>824000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1364000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>692000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>726000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>719000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>850000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>713000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>747000</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2886000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1814000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3075000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3385000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3594000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2395000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2555000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2806000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2989000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3282000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2070000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1989000</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4498000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3996000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5010000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4994000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7103000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7991000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2499000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2314000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2539000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2244000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2544000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2004000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2427000</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1675000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1677000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1756000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1734000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1483000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1577000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1187000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1435000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1355000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1215000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1265000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1558000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1350000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2827,9 +2974,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2869,9 +3019,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2911,51 +3064,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8397000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8561000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8582000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9809000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12045000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13165000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6089000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6312000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6696000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6498000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7106000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5632000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5774000</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2972,8 +3131,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3013,9 +3173,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3055,9 +3218,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3097,9 +3263,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3139,51 +3308,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4451000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4040000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3742000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3190000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1993000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2224000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2385000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1927000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1754000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2198000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1772000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9584000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9185000</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3223,9 +3398,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3265,9 +3443,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3307,51 +3488,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3331000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3152000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2563000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1103000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1364000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1637000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1525000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1381000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1615000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1217000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>898000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1088000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3391,98 +3578,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44409</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44045</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43674</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43310</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42946</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41854</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41483</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41119</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40755</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E81" s="3">
         <v>757000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1002000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1628000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>211000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>261000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>887000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>563000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>666000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>866000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>458000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>769000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>796000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3499,50 +3695,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F83" s="3">
         <v>317000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>328000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>446000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>394000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>318000</v>
       </c>
-      <c r="I83" s="3">
-        <v>308000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>303000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>305000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>407000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>262000</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3582,9 +3782,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3624,9 +3827,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3666,9 +3872,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3708,9 +3917,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3750,51 +3962,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1143000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1035000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1396000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1398000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1305000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1291000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1491000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1206000</v>
       </c>
       <c r="K89" s="3">
         <v>1206000</v>
       </c>
       <c r="L89" s="3">
+        <v>1206000</v>
+      </c>
+      <c r="M89" s="3">
         <v>967000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>951000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1120000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1142000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3811,50 +4029,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-370000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-275000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-299000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-384000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-407000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-338000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-341000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-380000</v>
       </c>
       <c r="K91" s="3">
         <v>-380000</v>
       </c>
       <c r="L91" s="3">
+        <v>-380000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-347000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-336000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-323000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-272000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3894,9 +4116,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3936,51 +4161,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-158000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2272000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>153000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7197000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-368000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-354000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-603000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-134000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2154000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-323000</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3997,50 +4228,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-447000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-439000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-426000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-423000</v>
       </c>
       <c r="G96" s="3">
         <v>-426000</v>
       </c>
       <c r="H96" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-420000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-390000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-394000</v>
       </c>
       <c r="K96" s="3">
         <v>-394000</v>
       </c>
       <c r="L96" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-391000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-367000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-373000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-378000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4080,9 +4315,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4122,9 +4360,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4164,133 +4405,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-723000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-910000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1669000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2987000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1591000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5807000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-911000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1099000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-550000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-925000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1237000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-920000</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-36000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-790000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>680000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-47000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-93000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>23000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>21000</v>
       </c>
       <c r="K102" s="3">
         <v>21000</v>
       </c>
       <c r="L102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M102" s="3">
         <v>-101000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-149000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>230000</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
